--- a/config_12.08/fish_yutu_random_2.xlsx
+++ b/config_12.08/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,9 +252,6 @@
     <t>活动</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,</t>
-  </si>
-  <si>
     <t>30,40,30</t>
   </si>
   <si>
@@ -264,24 +261,15 @@
     <t>小</t>
   </si>
   <si>
-    <t>12,13,14,15,18,19,20,21,184,185,</t>
-  </si>
-  <si>
     <t>中</t>
   </si>
   <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,</t>
-  </si>
-  <si>
     <t>20,60,5</t>
   </si>
   <si>
     <t>大</t>
   </si>
   <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,85,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
-  </si>
-  <si>
     <t>60,10,5</t>
   </si>
   <si>
@@ -298,6 +286,22 @@
   </si>
   <si>
     <t>191,192,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +380,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +391,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,7 +430,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,6 +462,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1010,7 +1027,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1131,10 +1148,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1432,6 +1449,102 @@
       </c>
       <c r="H12" s="8">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14">
+        <v>71</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14">
+        <v>72</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14">
+        <v>73</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14">
+        <v>74</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="14">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1629,8 +1742,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1681,16 +1794,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1698,16 +1811,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1715,16 +1828,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1732,16 +1845,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,16 +1862,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_12.08/fish_yutu_random_2.xlsx
+++ b/config_12.08/fish_yutu_random_2.xlsx
@@ -276,9 +276,6 @@
     <t>巨</t>
   </si>
   <si>
-    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,</t>
-  </si>
-  <si>
     <t>10,10,10</t>
   </si>
   <si>
@@ -289,19 +286,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,18,19,20,21,184,185,131,132,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,183,128,129,130,128,129,130,193,194,195,193,194,195,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,18,19,20,21,184,185,131,132,196,197,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,17,22,23,24,25,35,36,37,48,49,55,56,58,64,65,66,74,75,76,77,116,117,118,121,155,156,157,162,163,167,168,169,187,192,186,187,133,134,134,198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,28,29,30,33,34,38,39,40,41,42,43,44,45,46,47,50,51,52,53,54,57,61,62,63,67,68,71,72,73,83,84,8135,136,5,91,92,93,94,95,101,102,103,105,111,112,113,119,126,158,159,160,161,164,165,166,167,168,169,170,188,189,198,199,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,31,32,59,60,69,70,78,79,80,81,82,86,87,88,89,90,96,97,98,99,100,104,106,107,108,109,110,114,115,120,122,123,124,125,127,128,167,168,169,170,190,200,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>2000</v>
@@ -1151,7 +1152,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1743,7 +1744,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1794,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>58</v>
@@ -1811,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>58</v>
@@ -1828,7 +1829,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>62</v>
@@ -1845,7 +1846,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>64</v>
@@ -1862,16 +1863,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_12.08/fish_yutu_random_2.xlsx
+++ b/config_12.08/fish_yutu_random_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1151,8 +1151,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1460,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="14">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="D13" s="15">
         <v>2</v>
@@ -1484,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="14">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D14" s="15">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="14">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="D15" s="15">
         <v>2</v>
@@ -1532,7 +1532,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="14">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D16" s="15">
         <v>2</v>
@@ -1743,8 +1743,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_12.08/fish_yutu_random_2.xlsx
+++ b/config_12.08/fish_yutu_random_2.xlsx
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,7 +1460,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="14">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="15">
         <v>2</v>
@@ -1484,7 +1484,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="14">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="15">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="14">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="15">
         <v>2</v>
@@ -1532,7 +1532,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="15">
         <v>2</v>
